--- a/DATA_goal/Junction_Flooding_489.xlsx
+++ b/DATA_goal/Junction_Flooding_489.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -759,103 +759,103 @@
         <v>44820.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.21</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.45</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.72</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.35</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>5.39</v>
+        <v>53.9</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.67</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.33</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.4</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.69</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.42</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.92</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44820.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.61</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.84</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.06</v>
+        <v>30.56</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.66</v>
+        <v>26.62</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.64</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.86</v>
+        <v>38.65</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.71</v>
+        <v>17.06</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.4</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.39</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.4</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.13</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>16.39</v>
+        <v>163.86</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.08</v>
+        <v>30.84</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.9</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.42</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.03</v>
+        <v>20.31</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.24</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.54</v>
+        <v>35.41</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44820.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.26</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_489.xlsx
+++ b/DATA_goal/Junction_Flooding_489.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44820.54861111111</v>
+        <v>45170.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>13.798</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>9.137</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.527</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>29.879</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>22.444</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>10.657</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>31.967</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>16.87</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>6.742</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>10.011</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>11.733</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>12.516</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>3.497</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>10.903</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>14.966</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>9.704000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.059</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.672</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>158.575</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>30.182</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>10.064</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>19.331</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>17.102</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>8.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>9.673999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>12.058</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.072</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>28.934</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>5.407</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>12.581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44820.55555555555</v>
+        <v>45170.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.48</v>
+        <v>14.782</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.92</v>
+        <v>10.603</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.706</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.42</v>
+        <v>32.373</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.21</v>
+        <v>25.55</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.88</v>
+        <v>11.51</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>43.925</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.45</v>
+        <v>18.033</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.51</v>
+        <v>7.745</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.01</v>
+        <v>11.315</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.08</v>
+        <v>12.902</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.58</v>
+        <v>13.758</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.82</v>
+        <v>3.744</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.13</v>
+        <v>11.655</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.72</v>
+        <v>16.372</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.35</v>
+        <v>10.156</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.44</v>
+        <v>1.437</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>4.36</v>
+        <v>0.974</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>53.9</v>
+        <v>170.073</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.67</v>
+        <v>32.594</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.69</v>
+        <v>10.758</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.33</v>
+        <v>21.48</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.64</v>
+        <v>11.198</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.64</v>
+        <v>2.149</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.4</v>
+        <v>21.811</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.69</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.42</v>
+        <v>8.589</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.18</v>
+        <v>10.12</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.92</v>
+        <v>13.385</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.39</v>
+        <v>1.198</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.58</v>
+        <v>40.343</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.44</v>
+        <v>5.914</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.53</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44820.5625</v>
+        <v>45170.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.61</v>
+        <v>19.122</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.84</v>
+        <v>14.076</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.24</v>
+        <v>1.395</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.56</v>
+        <v>41.815</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>26.62</v>
+        <v>33.733</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.64</v>
+        <v>14.964</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>38.65</v>
+        <v>57.809</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.06</v>
+        <v>23.269</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.79</v>
+        <v>10.227</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.65</v>
+        <v>15.052</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.4</v>
+        <v>16.734</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.39</v>
+        <v>17.804</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.78</v>
+        <v>4.831</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.4</v>
+        <v>15.038</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.92</v>
+        <v>21.309</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.13</v>
+        <v>12.827</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.42</v>
+        <v>1.019</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.78</v>
+        <v>0.894</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>163.86</v>
+        <v>221.583</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>30.84</v>
+        <v>42.046</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.99</v>
+        <v>13.881</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.9</v>
+        <v>28.076</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.42</v>
+        <v>14.705</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.49</v>
+        <v>2.382</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.31</v>
+        <v>28.299</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>12.261</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>10.941</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>12.872</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.24</v>
+        <v>17.483</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.746</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>35.41</v>
+        <v>52.703</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.6</v>
+        <v>7.751</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.58</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44820.56944444445</v>
+        <v>45170.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.6</v>
+        <v>20.09</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.43</v>
+        <v>14.9</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.59</v>
+        <v>43.91</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.04</v>
+        <v>35.66</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.68</v>
+        <v>15.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.38</v>
+        <v>61.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.5</v>
+        <v>24.43</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.92</v>
+        <v>10.81</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.15</v>
+        <v>15.96</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.13</v>
+        <v>17.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.43</v>
+        <v>18.7</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.47</v>
+        <v>5.07</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.24</v>
+        <v>15.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.32</v>
+        <v>22.44</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.43</v>
+        <v>13.37</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>233.03</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.27</v>
+        <v>44.17</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.79</v>
+        <v>14.58</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.43</v>
+        <v>29.62</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.42</v>
+        <v>15.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>2.38</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.13</v>
+        <v>30.07</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.97</v>
+        <v>12.87</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.99</v>
+        <v>11.44</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.03</v>
+        <v>13.45</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.33</v>
+        <v>18.42</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.26</v>
+        <v>56.31</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.37</v>
+        <v>8.18</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44820.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.26</v>
+        <v>18.22</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_489.xlsx
+++ b/DATA_goal/Junction_Flooding_489.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,14 +444,14 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -463,15 +463,15 @@
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45170.50694444445</v>
+        <v>44820.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.798</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.137</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.527</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>29.879</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>22.444</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.657</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>31.967</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.87</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.742</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.011</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.733</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.516</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.497</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.903</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.966</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.704000000000001</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.059</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.672</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>158.575</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>30.182</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.064</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>19.331</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.888999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.102</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.888999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.15</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.673999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.058</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.072</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>28.934</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.407</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45170.51388888889</v>
+        <v>44820.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.782</v>
+        <v>5.477</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.603</v>
+        <v>1.922</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.706</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>32.373</v>
+        <v>9.416</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.55</v>
+        <v>11.213</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.51</v>
+        <v>2.883</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>43.925</v>
+        <v>8.534000000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.033</v>
+        <v>5.455</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.745</v>
+        <v>2.51</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.315</v>
+        <v>4.013</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.902</v>
+        <v>4.077</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.758</v>
+        <v>4.578</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.744</v>
+        <v>1.816</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.655</v>
+        <v>4.128</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.372</v>
+        <v>7.717</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.156</v>
+        <v>5.348</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.437</v>
+        <v>1.442</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.974</v>
+        <v>4.362</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>170.073</v>
+        <v>53.9</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>32.594</v>
+        <v>9.667</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.758</v>
+        <v>2.687</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>21.48</v>
+        <v>6.326</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.198</v>
+        <v>4.642</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.149</v>
+        <v>0.636</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>21.811</v>
+        <v>6.395</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>3.685</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.589</v>
+        <v>3.422</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.12</v>
+        <v>3.179</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.385</v>
+        <v>4.923</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.198</v>
+        <v>1.392</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>40.343</v>
+        <v>8.582000000000001</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.914</v>
+        <v>1.445</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.45</v>
+        <v>3.532</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45170.52083333334</v>
+        <v>44820.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.122</v>
+        <v>14.608</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.076</v>
+        <v>9.839</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.395</v>
+        <v>0.241</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>41.815</v>
+        <v>30.556</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>33.733</v>
+        <v>26.616</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.964</v>
+        <v>10.64</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>57.809</v>
+        <v>38.648</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.269</v>
+        <v>17.063</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.227</v>
+        <v>7.79</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.052</v>
+        <v>11.654</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.734</v>
+        <v>12.401</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.804</v>
+        <v>13.393</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.831</v>
+        <v>3.781</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.038</v>
+        <v>11.404</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.309</v>
+        <v>16.915</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.827</v>
+        <v>10.132</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.019</v>
+        <v>0.423</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.894</v>
+        <v>1.779</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>221.583</v>
+        <v>163.861</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>42.046</v>
+        <v>30.838</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.881</v>
+        <v>9.994</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.076</v>
+        <v>20.9</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.705</v>
+        <v>11.418</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.382</v>
+        <v>1.488</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.299</v>
+        <v>20.312</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.261</v>
+        <v>9.301</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.941</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.872</v>
+        <v>9.615</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.483</v>
+        <v>13.24</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.746</v>
+        <v>0.444</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>52.703</v>
+        <v>35.409</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.751</v>
+        <v>5.599</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.354</v>
+        <v>12.583</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45170.52777777778</v>
+        <v>44820.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.09</v>
+        <v>1.597</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.9</v>
+        <v>0.426</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>43.91</v>
+        <v>2.593</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>35.66</v>
+        <v>3.038</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.75</v>
+        <v>0.677</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>61.85</v>
+        <v>10.378</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.43</v>
+        <v>1.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.81</v>
+        <v>0.921</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.96</v>
+        <v>1.148</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.59</v>
+        <v>1.128</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.7</v>
+        <v>1.425</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.07</v>
+        <v>0.474</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.79</v>
+        <v>1.242</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.44</v>
+        <v>2.316</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.37</v>
+        <v>1.43</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.848</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>233.03</v>
+        <v>9.702</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>44.17</v>
+        <v>3.269</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.58</v>
+        <v>0.785</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>29.62</v>
+        <v>2.427</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.52</v>
+        <v>1.416</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.38</v>
+        <v>0.151</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>30.07</v>
+        <v>5.131</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.87</v>
+        <v>0.972</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.44</v>
+        <v>0.991</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.45</v>
+        <v>1.033</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.42</v>
+        <v>1.327</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>10.262</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>1.051</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44820.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>56.31</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>18.22</v>
+      <c r="C6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_489.xlsx
+++ b/DATA_goal/Junction_Flooding_489.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,14 +444,14 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -463,15 +463,15 @@
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44820.54861111111</v>
+        <v>45170.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>13.798</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>9.137</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.527</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>29.879</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>22.444</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>10.657</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>31.967</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>16.87</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>6.742</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>10.011</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>11.733</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>12.516</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>3.497</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>10.903</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>14.966</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>9.704000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.059</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.672</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>158.575</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>30.182</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>10.064</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>19.331</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>17.102</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>8.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>9.673999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>12.058</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.072</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>28.934</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>5.407</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>12.581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44820.55555555555</v>
+        <v>45170.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.477</v>
+        <v>14.782</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.922</v>
+        <v>10.603</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.706</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.416</v>
+        <v>32.373</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.213</v>
+        <v>25.55</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.883</v>
+        <v>11.51</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>8.534000000000001</v>
+        <v>43.925</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.455</v>
+        <v>18.033</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.51</v>
+        <v>7.745</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.013</v>
+        <v>11.315</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.077</v>
+        <v>12.902</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.578</v>
+        <v>13.758</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.816</v>
+        <v>3.744</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.128</v>
+        <v>11.655</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.717</v>
+        <v>16.372</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.348</v>
+        <v>10.156</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.442</v>
+        <v>1.437</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>4.362</v>
+        <v>0.974</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>53.9</v>
+        <v>170.073</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.667</v>
+        <v>32.594</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.687</v>
+        <v>10.758</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.326</v>
+        <v>21.48</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.642</v>
+        <v>11.198</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.636</v>
+        <v>2.149</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.395</v>
+        <v>21.811</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.685</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.422</v>
+        <v>8.589</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.179</v>
+        <v>10.12</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.923</v>
+        <v>13.385</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.392</v>
+        <v>1.198</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.582000000000001</v>
+        <v>40.343</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.445</v>
+        <v>5.914</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.532</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44820.5625</v>
+        <v>45170.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.608</v>
+        <v>19.122</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.839</v>
+        <v>14.076</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.241</v>
+        <v>1.395</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.556</v>
+        <v>41.815</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>26.616</v>
+        <v>33.733</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.64</v>
+        <v>14.964</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>38.648</v>
+        <v>57.809</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.063</v>
+        <v>23.269</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.79</v>
+        <v>10.227</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.654</v>
+        <v>15.052</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.401</v>
+        <v>16.734</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.393</v>
+        <v>17.804</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.781</v>
+        <v>4.831</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.404</v>
+        <v>15.038</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.915</v>
+        <v>21.309</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.132</v>
+        <v>12.827</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.423</v>
+        <v>1.019</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.779</v>
+        <v>0.894</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>163.861</v>
+        <v>221.583</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>30.838</v>
+        <v>42.046</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.994</v>
+        <v>13.881</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.9</v>
+        <v>28.076</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.418</v>
+        <v>14.705</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.488</v>
+        <v>2.382</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.312</v>
+        <v>28.299</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.301</v>
+        <v>12.261</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>10.941</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.615</v>
+        <v>12.872</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.24</v>
+        <v>17.483</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.444</v>
+        <v>0.746</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>35.409</v>
+        <v>52.703</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.599</v>
+        <v>7.751</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.583</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44820.56944444445</v>
+        <v>45170.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.597</v>
+        <v>20.09</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.426</v>
+        <v>14.9</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.593</v>
+        <v>43.91</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.038</v>
+        <v>35.66</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.677</v>
+        <v>15.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.378</v>
+        <v>61.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.5</v>
+        <v>24.43</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.921</v>
+        <v>10.81</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.148</v>
+        <v>15.96</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.128</v>
+        <v>17.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.425</v>
+        <v>18.7</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.474</v>
+        <v>5.07</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.242</v>
+        <v>15.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.316</v>
+        <v>22.44</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.43</v>
+        <v>13.37</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.152</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.848</v>
+        <v>0.83</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.702</v>
+        <v>233.03</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.269</v>
+        <v>44.17</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.785</v>
+        <v>14.58</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.427</v>
+        <v>29.62</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.416</v>
+        <v>15.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.151</v>
+        <v>2.38</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.131</v>
+        <v>30.07</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.972</v>
+        <v>12.87</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.991</v>
+        <v>11.44</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.033</v>
+        <v>13.45</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.327</v>
+        <v>18.42</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.264</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.262</v>
+        <v>56.31</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.37</v>
+        <v>8.18</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.051</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44820.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.26</v>
+        <v>18.22</v>
       </c>
     </row>
   </sheetData>
